--- a/doc/img/系统架构.xlsx
+++ b/doc/img/系统架构.xlsx
@@ -1180,7 +1180,7 @@
                     <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
-                  <a:t>基本操作</a:t>
+                  <a:t>基本操作封装</a:t>
                 </a:r>
               </a:p>
             </xdr:txBody>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
